--- a/Data/EC/NIT-8060024622.xlsx
+++ b/Data/EC/NIT-8060024622.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C62104-820D-4493-9B05-C2B3F42445E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F0A0A8-2FC4-42F1-81F7-AF7AB3DC1C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{53EB9C3A-1529-40C3-B65C-101CD097D890}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB6F2FA-6CDD-4274-A8B4-68BDB1A3A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>23145987</t>
+  </si>
+  <si>
+    <t>ROSANA HERNANDEZ CARMONA</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1047451831</t>
   </si>
   <si>
     <t>SANDIVI ESTHER LOPEZ SALAS</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>23145987</t>
-  </si>
-  <si>
-    <t>ROSANA HERNANDEZ CARMONA</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278BBA99-36F4-0DE1-47E8-B42575FDDAC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0208BD-D7FB-4F23-DE4D-AED399309693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F2AE73-2501-410C-9D82-1BF04A6854C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063AFA94-FDA7-4177-AB0E-A96EBBAE62B4}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25774</v>
+        <v>17466</v>
       </c>
       <c r="G16" s="18">
-        <v>644350</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
@@ -1081,13 +1081,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>644350</v>
+        <v>689455</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1098,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1121,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1150,13 +1150,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>644350</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1167,13 +1167,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>16323</v>
       </c>
       <c r="G23" s="18">
         <v>644350</v>
@@ -1213,13 +1213,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>25774</v>
@@ -1236,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>644350</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1259,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>25774</v>
@@ -1282,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>644350</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1305,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>16323</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>644350</v>
@@ -1328,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="24">
-        <v>17466</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="24">
-        <v>689455</v>
+        <v>644350</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
